--- a/GameTable-Converter/Skill.xlsx
+++ b/GameTable-Converter/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" activeTab="2"/>
+    <workbookView xWindow="8625" yWindow="-15" windowWidth="12645" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>*root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아쳐스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,65 +58,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0006</t>
+  </si>
+  <si>
+    <t>SkillEffect</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0004</t>
+  </si>
+  <si>
+    <t>SKI0005</t>
+  </si>
+  <si>
+    <t>SKI0006</t>
+  </si>
+  <si>
+    <t>SKI0007</t>
+  </si>
+  <si>
+    <t>SKI0008</t>
+  </si>
+  <si>
+    <t>SKI0009</t>
+  </si>
+  <si>
+    <t>아쳐스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쳐스킬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사스킬2</t>
+  </si>
+  <si>
+    <t>전사스킬3</t>
+  </si>
+  <si>
+    <t>마법사스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사스킬2</t>
+  </si>
+  <si>
+    <t>마법사스킬3</t>
+  </si>
+  <si>
+    <t>일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3배로 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SKE0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKE0003</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKI0002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKE0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKI0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100의 출혐뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100의 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100의 이동속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5배의 공격을 4명에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKE0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0007</t>
+  </si>
+  <si>
+    <t>SKE0008</t>
+  </si>
+  <si>
+    <t>SKE0009</t>
+  </si>
+  <si>
+    <t>SKE0010</t>
+  </si>
+  <si>
+    <t>SKE0011</t>
+  </si>
+  <si>
+    <t>방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKE0006</t>
-  </si>
-  <si>
-    <t>즉시 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addValueRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKE0011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,12 +349,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,24 +663,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,40 +688,136 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>300</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -567,118 +828,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -689,83 +1093,496 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameTable-Converter/Skill.xlsx
+++ b/GameTable-Converter/Skill.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangyun\Desktop\GitHub Repository\GAME_TABLE\GameTable-Converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="-15" windowWidth="12645" windowHeight="12195" activeTab="2"/>
+    <workbookView xWindow="8630" yWindow="-20" windowWidth="12650" windowHeight="12200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -142,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3배로 일반공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +283,10 @@
   </si>
   <si>
     <t>SKE0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,6 +377,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -419,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,18 +677,18 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,7 +702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -708,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -722,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -736,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -750,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -764,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -778,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -792,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -806,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -830,22 +838,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,18 +891,18 @@
         <v>1.3</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -902,18 +911,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -922,18 +931,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -942,18 +951,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -962,10 +971,10 @@
         <v>1.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -973,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -982,18 +991,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
@@ -1002,18 +1011,18 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
@@ -1022,18 +1031,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
@@ -1042,18 +1051,18 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
@@ -1062,18 +1071,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1095,21 +1104,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1120,10 +1129,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1165,9 +1174,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1179,9 +1188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1193,9 +1202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1207,9 +1216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1221,9 +1230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1235,9 +1244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1249,9 +1258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1263,9 +1272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1277,9 +1286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1291,9 +1300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1305,9 +1314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1319,9 +1328,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1333,9 +1342,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1347,9 +1356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1361,9 +1370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1375,9 +1384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1389,9 +1398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -1403,9 +1412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -1417,9 +1426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1431,9 +1440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1445,9 +1454,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1459,9 +1468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1473,9 +1482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -1487,9 +1496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -1501,9 +1510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -1515,9 +1524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -1529,9 +1538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -1543,9 +1552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1557,9 +1566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -1571,9 +1580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
